--- a/example_output/csv_data/Validation_wind_condensed_vm_vise.xlsx
+++ b/example_output/csv_data/Validation_wind_condensed_vm_vise.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>313381.3500222114</v>
+        <v>454654.1465426279</v>
       </c>
       <c r="C2">
-        <v>356992.73820786</v>
+        <v>544810.6798591948</v>
       </c>
       <c r="D2">
-        <v>464</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>343355.5462838534</v>
+        <v>681539.1034618149</v>
       </c>
       <c r="C3">
-        <v>390556.5159405408</v>
+        <v>786715.6347190476</v>
       </c>
       <c r="D3">
-        <v>892</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>813414.92917362</v>
+        <v>1437729.785908199</v>
       </c>
       <c r="C4">
-        <v>461389.1114601623</v>
+        <v>849381.6526678477</v>
       </c>
       <c r="D4">
-        <v>1058</v>
+        <v>16649</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1168932.299839749</v>
+        <v>2112250.020068421</v>
       </c>
       <c r="C5">
-        <v>821045.2979620635</v>
+        <v>1584983.539177967</v>
       </c>
       <c r="D5">
-        <v>1278</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1573939.640586594</v>
+        <v>3007702.312532242</v>
       </c>
       <c r="C6">
-        <v>1304262.080086107</v>
+        <v>2480926.597933097</v>
       </c>
       <c r="D6">
-        <v>1370</v>
+        <v>24716</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,13 +490,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2158495.651694275</v>
+        <v>4296621.00778369</v>
       </c>
       <c r="C7">
-        <v>1974075.573854931</v>
+        <v>3930272.271949579</v>
       </c>
       <c r="D7">
-        <v>1516</v>
+        <v>27307</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,13 +504,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2992596.264279696</v>
+        <v>6040695.618427343</v>
       </c>
       <c r="C8">
-        <v>2911700.511382272</v>
+        <v>5853771.306253061</v>
       </c>
       <c r="D8">
-        <v>1658</v>
+        <v>29729</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4490173.310858018</v>
+        <v>9320880.012220975</v>
       </c>
       <c r="C9">
-        <v>4233048.983334715</v>
+        <v>8675601.590939311</v>
       </c>
       <c r="D9">
-        <v>1686</v>
+        <v>30546</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8272602.375845375</v>
+        <v>17091678.90235374</v>
       </c>
       <c r="C10">
-        <v>5863735.969552769</v>
+        <v>12003780.58556459</v>
       </c>
       <c r="D10">
-        <v>1565</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16070316.95373507</v>
+        <v>34683481.11061838</v>
       </c>
       <c r="C11">
-        <v>8017527.849381265</v>
+        <v>17000923.56541673</v>
       </c>
       <c r="D11">
-        <v>1566</v>
+        <v>28659</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27493568.70594574</v>
+        <v>58269029.50004988</v>
       </c>
       <c r="C12">
-        <v>11484055.41034929</v>
+        <v>24120813.80585439</v>
       </c>
       <c r="D12">
-        <v>1424</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>38081662.39398943</v>
+        <v>79808378.12998381</v>
       </c>
       <c r="C13">
-        <v>15106748.48168517</v>
+        <v>31599826.54368984</v>
       </c>
       <c r="D13">
-        <v>1252</v>
+        <v>23060</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -588,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>49357698.61485122</v>
+        <v>102316021.8013181</v>
       </c>
       <c r="C14">
-        <v>19449460.41010551</v>
+        <v>40462783.34347743</v>
       </c>
       <c r="D14">
-        <v>1202</v>
+        <v>19141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -602,13 +602,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>62094872.11639183</v>
+        <v>123918935.0323054</v>
       </c>
       <c r="C15">
-        <v>24061956.36296913</v>
+        <v>48122522.82490514</v>
       </c>
       <c r="D15">
-        <v>893</v>
+        <v>16467</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -616,13 +616,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>70518263.94584392</v>
+        <v>144270442.4023428</v>
       </c>
       <c r="C16">
-        <v>27900360.90588121</v>
+        <v>57473994.24956113</v>
       </c>
       <c r="D16">
-        <v>800</v>
+        <v>14069</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -630,13 +630,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>78892202.49586928</v>
+        <v>158280559.3508453</v>
       </c>
       <c r="C17">
-        <v>32906496.93404427</v>
+        <v>66227692.30387367</v>
       </c>
       <c r="D17">
-        <v>675</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -644,13 +644,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>88126656.18001387</v>
+        <v>173144289.2701344</v>
       </c>
       <c r="C18">
-        <v>36949570.27068802</v>
+        <v>74502761.47496882</v>
       </c>
       <c r="D18">
-        <v>580</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>91828597.10481173</v>
+        <v>167953189.5904163</v>
       </c>
       <c r="C19">
-        <v>41034097.49614869</v>
+        <v>80005593.39880762</v>
       </c>
       <c r="D19">
-        <v>546</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,13 +672,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>87388638.75215465</v>
+        <v>166434924.4820614</v>
       </c>
       <c r="C20">
-        <v>43664678.8842048</v>
+        <v>83413219.54975668</v>
       </c>
       <c r="D20">
-        <v>425</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>83493102.65365019</v>
+        <v>163602413.7880765</v>
       </c>
       <c r="C21">
-        <v>42944707.67668396</v>
+        <v>85064424.14862418</v>
       </c>
       <c r="D21">
-        <v>276</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -700,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>79230673.84720117</v>
+        <v>159302231.9663929</v>
       </c>
       <c r="C22">
-        <v>42312771.65351634</v>
+        <v>85018480.78788474</v>
       </c>
       <c r="D22">
-        <v>184</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -714,13 +714,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>74677259.69894533</v>
+        <v>152605261.8957664</v>
       </c>
       <c r="C23">
-        <v>40853593.96758737</v>
+        <v>83363868.75300349</v>
       </c>
       <c r="D23">
-        <v>120</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -728,13 +728,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>69748522.39192666</v>
+        <v>144981376.3072464</v>
       </c>
       <c r="C24">
-        <v>39023801.78303368</v>
+        <v>80958200.60430932</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -742,13 +742,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>61654264.05263785</v>
+        <v>132821306.7674993</v>
       </c>
       <c r="C25">
-        <v>35234193.53784737</v>
+        <v>75691040.14929195</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>64521403.12149045</v>
+        <v>125922510.647012</v>
       </c>
       <c r="C26">
-        <v>37623650.15548275</v>
+        <v>73134175.66296239</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -770,13 +770,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>57426593.20501775</v>
+        <v>112415699.400221</v>
       </c>
       <c r="C27">
-        <v>34148863.0047373</v>
+        <v>66436220.70790474</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -784,13 +784,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>48572499.64455761</v>
+        <v>104209437.7339677</v>
       </c>
       <c r="C28">
-        <v>29419917.64470697</v>
+        <v>62571714.29813141</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -798,13 +798,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>50789572.42189746</v>
+        <v>96428089.15501121</v>
       </c>
       <c r="C29">
-        <v>31330501.99221489</v>
+        <v>58791823.53450678</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -812,13 +812,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>38177319.54655961</v>
+        <v>88390783.9273444</v>
       </c>
       <c r="C30">
-        <v>23963133.13298795</v>
+        <v>54642498.36339682</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -826,13 +826,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>29269958.90651969</v>
+        <v>75234548.43948661</v>
       </c>
       <c r="C31">
-        <v>18709626.91083162</v>
+        <v>47097276.80030135</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -840,24 +840,122 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>67516901.45690806</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>42763072.41195241</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>24608623.66939014</v>
+        <v>62368806.24262962</v>
       </c>
       <c r="C33">
-        <v>16321510.0032005</v>
+        <v>39940953.48142151</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>53247007.60151481</v>
+      </c>
+      <c r="C34">
+        <v>34446203.54125253</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>52339321.96182998</v>
+      </c>
+      <c r="C35">
+        <v>34190104.82095365</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>42110624.02384906</v>
+      </c>
+      <c r="C36">
+        <v>27753171.55315759</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>42831067.21060947</v>
+      </c>
+      <c r="C37">
+        <v>28437969.59651976</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>36333522.23115449</v>
+      </c>
+      <c r="C38">
+        <v>24313422.61529827</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>27819053.51840288</v>
+      </c>
+      <c r="C39">
+        <v>18749698.69118504</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28000379.29705108</v>
+      </c>
+      <c r="C40">
+        <v>19002854.00533638</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +965,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>117600.0981839481</v>
+        <v>222075.7723140118</v>
       </c>
       <c r="C2">
-        <v>143361.1225359464</v>
+        <v>267313.4296372365</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -906,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>214894.2031147514</v>
+        <v>387098.5724604279</v>
       </c>
       <c r="C3">
-        <v>255669.1256525495</v>
+        <v>449060.115079352</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -920,13 +1018,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>460302.070457023</v>
+        <v>754425.3537718221</v>
       </c>
       <c r="C4">
-        <v>247824.4578606507</v>
+        <v>436667.1248295541</v>
       </c>
       <c r="D4">
-        <v>118</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -934,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>706441.0516941565</v>
+        <v>1166527.27717565</v>
       </c>
       <c r="C5">
-        <v>504041.893865807</v>
+        <v>881147.964585327</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -948,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>870822.555630339</v>
+        <v>1664220.222563408</v>
       </c>
       <c r="C6">
-        <v>725831.2814004601</v>
+        <v>1389540.529286127</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -962,13 +1060,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1261729.939549981</v>
+        <v>2439693.074947609</v>
       </c>
       <c r="C7">
-        <v>1153876.168934635</v>
+        <v>2235433.167213991</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -976,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1792074.129829226</v>
+        <v>3474496.308396454</v>
       </c>
       <c r="C8">
-        <v>1757856.788326987</v>
+        <v>3389899.876539845</v>
       </c>
       <c r="D8">
-        <v>159</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -990,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2990025.137568472</v>
+        <v>5848209.287625022</v>
       </c>
       <c r="C9">
-        <v>2483159.497863106</v>
+        <v>5181800.990870496</v>
       </c>
       <c r="D9">
-        <v>163</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1004,13 +1102,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4979266.131245627</v>
+        <v>12273819.23792918</v>
       </c>
       <c r="C10">
-        <v>3340116.196975686</v>
+        <v>7532043.214569817</v>
       </c>
       <c r="D10">
-        <v>184</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1018,13 +1116,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11671487.55401886</v>
+        <v>25655875.5090967</v>
       </c>
       <c r="C11">
-        <v>5285351.047729606</v>
+        <v>11432128.20596472</v>
       </c>
       <c r="D11">
-        <v>189</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1032,13 +1130,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18766452.94406505</v>
+        <v>40635807.29881851</v>
       </c>
       <c r="C12">
-        <v>7561146.14984137</v>
+        <v>16350200.05032802</v>
       </c>
       <c r="D12">
-        <v>193</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1046,13 +1144,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23917501.26292254</v>
+        <v>57365201.23828264</v>
       </c>
       <c r="C13">
-        <v>9459909.652473113</v>
+        <v>22615933.52520566</v>
       </c>
       <c r="D13">
-        <v>161</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1060,13 +1158,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32087555.07003463</v>
+        <v>68316084.82322711</v>
       </c>
       <c r="C14">
-        <v>12774488.30230192</v>
+        <v>27263543.79146513</v>
       </c>
       <c r="D14">
-        <v>184</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1074,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>41035875.26421286</v>
+        <v>85382420.88617633</v>
       </c>
       <c r="C15">
-        <v>16031236.76100766</v>
+        <v>33171710.11329809</v>
       </c>
       <c r="D15">
-        <v>144</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1088,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>46628859.05015742</v>
+        <v>95131890.16305852</v>
       </c>
       <c r="C16">
-        <v>19162544.81513318</v>
+        <v>39708709.91734812</v>
       </c>
       <c r="D16">
-        <v>159</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1102,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>54853158.1674395</v>
+        <v>107481308.4533038</v>
       </c>
       <c r="C17">
-        <v>22962148.83280152</v>
+        <v>45563198.87650407</v>
       </c>
       <c r="D17">
-        <v>135</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1116,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>56477958.94556243</v>
+        <v>110206026.1575454</v>
       </c>
       <c r="C18">
-        <v>24572316.31734106</v>
+        <v>50623397.31994627</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1130,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>53394316.69736107</v>
+        <v>109250514.2071443</v>
       </c>
       <c r="C19">
-        <v>25531126.38602858</v>
+        <v>53182723.82793894</v>
       </c>
       <c r="D19">
-        <v>113</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1144,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>58623766.799491</v>
+        <v>112220943.31433</v>
       </c>
       <c r="C20">
-        <v>29649605.87674059</v>
+        <v>56863255.04319621</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1158,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>54942504.54809178</v>
+        <v>113077389.6246603</v>
       </c>
       <c r="C21">
-        <v>28459250.04918928</v>
+        <v>59229635.76296818</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1172,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>55388370.27180556</v>
+        <v>111199275.8980324</v>
       </c>
       <c r="C22">
-        <v>29719017.75448135</v>
+        <v>59614551.42356818</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1186,13 +1284,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>52750263.19429664</v>
+        <v>104461382.0316911</v>
       </c>
       <c r="C23">
-        <v>28881566.00775881</v>
+        <v>57161101.78983632</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1200,13 +1298,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>44934901.36730069</v>
+        <v>99997907.49807471</v>
       </c>
       <c r="C24">
-        <v>25154430.70728351</v>
+        <v>55918403.60592946</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1214,13 +1312,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>39278671.44516639</v>
+        <v>90917331.93456393</v>
       </c>
       <c r="C25">
-        <v>22440504.48490281</v>
+        <v>51851818.6486531</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1228,13 +1326,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>40701648.04151227</v>
+        <v>87707508.62542543</v>
       </c>
       <c r="C26">
-        <v>23699920.55293307</v>
+        <v>50952524.41549242</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1242,13 +1340,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>40920302.05356687</v>
+        <v>74160352.42516385</v>
       </c>
       <c r="C27">
-        <v>24255108.68464978</v>
+        <v>43815303.60968947</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1256,13 +1354,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>32032271.41191893</v>
+        <v>68648005.92152183</v>
       </c>
       <c r="C28">
-        <v>19310667.87660284</v>
+        <v>41201883.91533928</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1270,13 +1368,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>24779875.79366899</v>
+        <v>64637504.94047149</v>
       </c>
       <c r="C29">
-        <v>15184063.02940977</v>
+        <v>39377599.63351082</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1284,13 +1382,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>35578582.32216357</v>
+        <v>64388203.18741543</v>
       </c>
       <c r="C30">
-        <v>22149897.35098485</v>
+        <v>39757407.83827452</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1298,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>30329377.66258527</v>
+        <v>52219811.35318922</v>
       </c>
       <c r="C31">
-        <v>19179958.83645955</v>
+        <v>32665730.04415485</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1312,24 +1410,122 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>48523701.84710616</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>30735617.88228964</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>25469264.1405102</v>
+        <v>49466867.2908206</v>
       </c>
       <c r="C33">
-        <v>16679781.7107711</v>
+        <v>31696717.32752673</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>42017398.26419215</v>
+      </c>
+      <c r="C34">
+        <v>27226720.20450679</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>35679284.80421367</v>
+      </c>
+      <c r="C35">
+        <v>23376162.65388351</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27165579.93931325</v>
+      </c>
+      <c r="C36">
+        <v>18000744.38807293</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27184851.27810678</v>
+      </c>
+      <c r="C37">
+        <v>18210977.17491141</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>27186603.2179971</v>
+      </c>
+      <c r="C38">
+        <v>18408946.38251765</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>27143242.70571166</v>
+      </c>
+      <c r="C39">
+        <v>18565307.01772878</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1363,8 +1559,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>260522.7795889364</v>
+      </c>
+      <c r="C2">
+        <v>313594.9090229354</v>
+      </c>
       <c r="D2">
-        <v>52</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1372,13 +1574,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>210964.729942739</v>
+        <v>370008.719150032</v>
       </c>
       <c r="C3">
-        <v>245472.7590251941</v>
+        <v>428400.551930648</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1386,13 +1588,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>433256.1318932461</v>
+        <v>776852.0357059326</v>
       </c>
       <c r="C4">
-        <v>250920.0658095576</v>
+        <v>456593.5400532751</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1400,13 +1602,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>627483.6857442685</v>
+        <v>1132412.479875565</v>
       </c>
       <c r="C5">
-        <v>450225.1457044427</v>
+        <v>869981.2552004644</v>
       </c>
       <c r="D5">
-        <v>135</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1414,13 +1616,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>903498.0490265788</v>
+        <v>1638473.686918989</v>
       </c>
       <c r="C6">
-        <v>753129.0290689513</v>
+        <v>1384591.436667746</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1428,13 +1630,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1213999.42749983</v>
+        <v>2377243.709374627</v>
       </c>
       <c r="C7">
-        <v>1110286.694080758</v>
+        <v>2178355.832993275</v>
       </c>
       <c r="D7">
-        <v>160</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1442,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1733274.284350365</v>
+        <v>3397442.802802653</v>
       </c>
       <c r="C8">
-        <v>1696512.108462284</v>
+        <v>3302340.021235039</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1456,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2671313.199048126</v>
+        <v>5433190.937962975</v>
       </c>
       <c r="C9">
-        <v>2424272.801375183</v>
+        <v>4958152.461206365</v>
       </c>
       <c r="D9">
-        <v>169</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1470,13 +1672,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5577496.222942887</v>
+        <v>11442490.79868383</v>
       </c>
       <c r="C10">
-        <v>3452555.279656852</v>
+        <v>7208334.844428788</v>
       </c>
       <c r="D10">
-        <v>145</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1484,13 +1686,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10298059.09082458</v>
+        <v>23278149.5974868</v>
       </c>
       <c r="C11">
-        <v>4745432.929332997</v>
+        <v>10630917.71739242</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1498,13 +1700,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18773504.95047327</v>
+        <v>38500930.21704198</v>
       </c>
       <c r="C12">
-        <v>7573803.107015375</v>
+        <v>15512975.92752625</v>
       </c>
       <c r="D12">
-        <v>220</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1512,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>27872765.85171175</v>
+        <v>54614983.88084365</v>
       </c>
       <c r="C13">
-        <v>11007752.08152388</v>
+        <v>21521658.83577545</v>
       </c>
       <c r="D13">
-        <v>185</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1526,13 +1728,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>32485219.68437631</v>
+        <v>65863553.99905889</v>
       </c>
       <c r="C14">
-        <v>12988595.86704141</v>
+        <v>26351271.22695855</v>
       </c>
       <c r="D14">
-        <v>126</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1540,13 +1742,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>36642726.48777518</v>
+        <v>76107963.49244782</v>
       </c>
       <c r="C15">
-        <v>15126075.23270941</v>
+        <v>31424309.15000538</v>
       </c>
       <c r="D15">
-        <v>111</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1554,13 +1756,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>41440836.54949477</v>
+        <v>89224064.68256819</v>
       </c>
       <c r="C16">
-        <v>17282890.22065893</v>
+        <v>37594070.2673069</v>
       </c>
       <c r="D16">
-        <v>109</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1568,13 +1770,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>47959493.54413336</v>
+        <v>98741253.75753213</v>
       </c>
       <c r="C17">
-        <v>21150067.30847983</v>
+        <v>42920105.52997347</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1582,13 +1784,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>44092913.66966463</v>
+        <v>100921848.0756607</v>
       </c>
       <c r="C18">
-        <v>20811984.08817368</v>
+        <v>47569743.54281086</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1596,13 +1798,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>43042485.91202497</v>
+        <v>102684758.2663917</v>
       </c>
       <c r="C19">
-        <v>21280666.2244251</v>
+        <v>50622924.99338046</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1610,13 +1812,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>46763966.31274487</v>
+        <v>104822508.7751865</v>
       </c>
       <c r="C20">
-        <v>24159899.76267742</v>
+        <v>53775904.53352793</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>910</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1624,13 +1826,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>47682788.7517354</v>
+        <v>103730956.3419516</v>
       </c>
       <c r="C21">
-        <v>25402303.02853993</v>
+        <v>54782242.26653519</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1638,13 +1840,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>47667912.46818876</v>
+        <v>103690444.2785947</v>
       </c>
       <c r="C22">
-        <v>25776272.16335773</v>
+        <v>56087458.53065728</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1652,13 +1854,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>48499623.59588847</v>
+        <v>99418228.33286801</v>
       </c>
       <c r="C23">
-        <v>26907220.10762068</v>
+        <v>54982070.80729207</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1666,13 +1868,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>43272039.32097688</v>
+        <v>98697069.29185264</v>
       </c>
       <c r="C24">
-        <v>24570956.96174825</v>
+        <v>55786634.24507772</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1680,13 +1882,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>38900876.30939092</v>
+        <v>92110984.69759353</v>
       </c>
       <c r="C25">
-        <v>22564162.03409824</v>
+        <v>53089287.89501524</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1694,13 +1896,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>41211022.25826661</v>
+        <v>91435834.06334855</v>
       </c>
       <c r="C26">
-        <v>24388432.49117596</v>
+        <v>53678650.92474584</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1708,13 +1910,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>39941397.68182177</v>
+        <v>83422509.31686334</v>
       </c>
       <c r="C27">
-        <v>24108180.96651565</v>
+        <v>49777559.2876806</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1722,13 +1924,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28681913.78577336</v>
+        <v>76556263.76032607</v>
       </c>
       <c r="C28">
-        <v>17663229.52590746</v>
+        <v>46382838.00092473</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1736,13 +1938,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>34347826.00123497</v>
+        <v>71759770.04348214</v>
       </c>
       <c r="C29">
-        <v>21598627.53436358</v>
+        <v>44059310.74799183</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1750,13 +1952,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>64673601.49653441</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>40236990.30892126</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1764,13 +1966,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>54832273.09199349</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>34529649.35248343</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1778,24 +1980,122 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>48515550.02823222</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>30895393.53221879</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>47070383.47025898</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>30287515.54575926</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>41994091.82427792</v>
+      </c>
+      <c r="C34">
+        <v>27278816.95255036</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>35545555.21562313</v>
+      </c>
+      <c r="C35">
+        <v>23324284.79624062</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27270696.33273249</v>
+      </c>
+      <c r="C36">
+        <v>18041039.0055503</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>38915932.62773143</v>
+      </c>
+      <c r="C37">
+        <v>25949942.65994156</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>32764374.06602999</v>
+      </c>
+      <c r="C38">
+        <v>22026951.42281866</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>27639917.66461758</v>
+      </c>
+      <c r="C40">
+        <v>18841237.5504543</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>354398.3576157575</v>
+        <v>253061.4404178507</v>
       </c>
       <c r="C2">
-        <v>400401.5141106581</v>
+        <v>305625.9910379403</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1844,13 +2144,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>186905.2386447068</v>
+        <v>372373.595161989</v>
       </c>
       <c r="C3">
-        <v>209743.0620350988</v>
+        <v>430791.1365795988</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1858,13 +2158,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>403140.4192586415</v>
+        <v>731689.2780810497</v>
       </c>
       <c r="C4">
-        <v>236145.2630896594</v>
+        <v>433718.3148636159</v>
       </c>
       <c r="D4">
-        <v>117</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1872,13 +2172,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>655012.716687095</v>
+        <v>1121068.946102246</v>
       </c>
       <c r="C5">
-        <v>466440.1561190364</v>
+        <v>872107.2434780166</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1886,13 +2186,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>878731.5690234619</v>
+        <v>1622443.266204229</v>
       </c>
       <c r="C6">
-        <v>705710.2840614566</v>
+        <v>1363515.791867561</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1900,13 +2200,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1195363.187571609</v>
+        <v>2363433.048488049</v>
       </c>
       <c r="C7">
-        <v>1093269.381413714</v>
+        <v>2165664.644616425</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1914,13 +2214,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1708663.391842462</v>
+        <v>3409425.612959391</v>
       </c>
       <c r="C8">
-        <v>1660873.06762535</v>
+        <v>3310536.111768341</v>
       </c>
       <c r="D8">
-        <v>215</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1928,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3009792.033585598</v>
+        <v>5406875.060528647</v>
       </c>
       <c r="C9">
-        <v>2631765.105930302</v>
+        <v>4959905.84189773</v>
       </c>
       <c r="D9">
-        <v>160</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1942,13 +2242,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4754938.216032614</v>
+        <v>10568182.79010128</v>
       </c>
       <c r="C10">
-        <v>3248623.636211636</v>
+        <v>6961993.953387396</v>
       </c>
       <c r="D10">
-        <v>162</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1956,13 +2256,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10471526.24450362</v>
+        <v>22717562.56218513</v>
       </c>
       <c r="C11">
-        <v>4894108.386243344</v>
+        <v>10374983.72139842</v>
       </c>
       <c r="D11">
-        <v>169</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1970,13 +2270,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18087896.52526624</v>
+        <v>37260357.25778821</v>
       </c>
       <c r="C12">
-        <v>7287587.295686977</v>
+        <v>15012129.66789517</v>
       </c>
       <c r="D12">
-        <v>164</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1984,13 +2284,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24946182.91585069</v>
+        <v>51527182.5611945</v>
       </c>
       <c r="C13">
-        <v>9827065.697775863</v>
+        <v>20293980.85172645</v>
       </c>
       <c r="D13">
-        <v>107</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1998,13 +2298,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>29271885.4939477</v>
+        <v>63262558.01577639</v>
       </c>
       <c r="C14">
-        <v>11750309.56918983</v>
+        <v>25358208.5426955</v>
       </c>
       <c r="D14">
-        <v>157</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2012,13 +2312,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>38086281.28692179</v>
+        <v>73698921.33231975</v>
       </c>
       <c r="C15">
-        <v>15723807.89758043</v>
+        <v>30398805.72378104</v>
       </c>
       <c r="D15">
-        <v>118</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2026,13 +2326,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>43957326.54611704</v>
+        <v>85488407.03078419</v>
       </c>
       <c r="C16">
-        <v>18649131.44557768</v>
+        <v>36144027.82315234</v>
       </c>
       <c r="D16">
-        <v>113</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2040,13 +2340,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>46634261.86566091</v>
+        <v>92087916.01073611</v>
       </c>
       <c r="C17">
-        <v>21018761.68664185</v>
+        <v>41675663.47111083</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2054,13 +2354,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>47303717.74240763</v>
+        <v>97229593.83703205</v>
       </c>
       <c r="C18">
-        <v>22744766.56271055</v>
+        <v>46203820.28946498</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2068,13 +2368,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>50130140.62122704</v>
+        <v>98487930.29468566</v>
       </c>
       <c r="C19">
-        <v>25152422.95417244</v>
+        <v>49212208.77907386</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2082,13 +2382,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>51104059.16642591</v>
+        <v>100642672.4182291</v>
       </c>
       <c r="C20">
-        <v>26499045.88903714</v>
+        <v>51995974.13791092</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2096,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>54598210.8228856</v>
+        <v>100294080.750519</v>
       </c>
       <c r="C21">
-        <v>28825786.45363313</v>
+        <v>53314038.90433136</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2110,13 +2410,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51666887.68846955</v>
+        <v>97729184.58811744</v>
       </c>
       <c r="C22">
-        <v>28590463.76763382</v>
+        <v>53641501.36552858</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2124,13 +2424,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>44378387.09106984</v>
+        <v>92743319.77341616</v>
       </c>
       <c r="C23">
-        <v>25225060.3379891</v>
+        <v>52185010.87113381</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2138,13 +2438,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>43656700.33616448</v>
+        <v>89426259.48254949</v>
       </c>
       <c r="C24">
-        <v>25461296.36277836</v>
+        <v>51441549.32660677</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2152,13 +2452,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>42283418.06374593</v>
+        <v>84321695.24093552</v>
       </c>
       <c r="C25">
-        <v>25263810.66863499</v>
+        <v>49512787.2213323</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2166,13 +2466,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>40872711.83590229</v>
+        <v>77663238.85100065</v>
       </c>
       <c r="C26">
-        <v>24964562.95695074</v>
+        <v>46479710.49034326</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2180,13 +2480,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>41671150.31503538</v>
+        <v>75274471.85108742</v>
       </c>
       <c r="C27">
-        <v>26039782.80697213</v>
+        <v>45785371.59221368</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2194,13 +2494,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>32886651.28504445</v>
+        <v>69017224.04918399</v>
       </c>
       <c r="C28">
-        <v>20989753.11892683</v>
+        <v>42671363.419643</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2208,13 +2508,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>27742812.49905447</v>
+        <v>64218564.96235105</v>
       </c>
       <c r="C29">
-        <v>18129915.4676158</v>
+        <v>40318436.71206712</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2222,13 +2522,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>27783960.03186134</v>
+        <v>58778896.9405155</v>
       </c>
       <c r="C30">
-        <v>18562745.84435645</v>
+        <v>37417445.08327353</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2236,13 +2536,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>51914593.0535668</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>33483463.15753008</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2250,23 +2550,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>44743929.66988397</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>29211910.35716941</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>39767641.32894224</v>
       </c>
       <c r="C33">
+        <v>26261559.39864698</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>25468388.17056504</v>
+      </c>
+      <c r="C34">
+        <v>17022285.9593288</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>30292917.8233893</v>
+      </c>
+      <c r="C35">
+        <v>20481575.09575546</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2302,13 +2700,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>145380.3805159299</v>
+        <v>335142.8992148567</v>
       </c>
       <c r="C2">
-        <v>160853.0996386257</v>
+        <v>401608.0028063403</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2316,13 +2714,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>202922.7710805906</v>
+        <v>382725.4197056244</v>
       </c>
       <c r="C3">
-        <v>211594.0727073224</v>
+        <v>441930.0929791396</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2330,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>421790.4359602758</v>
+        <v>758139.8858320185</v>
       </c>
       <c r="C4">
-        <v>244949.081607032</v>
+        <v>442432.1273866999</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2344,13 +2742,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>662157.9561089943</v>
+        <v>1137930.027148718</v>
       </c>
       <c r="C5">
-        <v>470996.4129764292</v>
+        <v>866847.0337123581</v>
       </c>
       <c r="D5">
-        <v>122</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2358,13 +2756,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>866227.2065929361</v>
+        <v>1636037.871239048</v>
       </c>
       <c r="C6">
-        <v>715788.4800114442</v>
+        <v>1374316.181344329</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2372,13 +2770,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1189339.075770919</v>
+        <v>2342141.688617525</v>
       </c>
       <c r="C7">
-        <v>1084052.88345048</v>
+        <v>2142549.119103889</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2386,13 +2784,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1573128.529482949</v>
+        <v>3331009.920853739</v>
       </c>
       <c r="C8">
-        <v>1524472.020486061</v>
+        <v>3234508.695882446</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2400,13 +2798,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2752365.173605551</v>
+        <v>5296007.119627096</v>
       </c>
       <c r="C9">
-        <v>2438493.547126445</v>
+        <v>4832578.646390901</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2414,13 +2812,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5734818.938709187</v>
+        <v>10836770.87533719</v>
       </c>
       <c r="C10">
-        <v>3402208.900808802</v>
+        <v>6948650.379772472</v>
       </c>
       <c r="D10">
-        <v>146</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2428,13 +2826,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10072174.17043074</v>
+        <v>22627515.31540619</v>
       </c>
       <c r="C11">
-        <v>4684930.446853619</v>
+        <v>10203011.63040554</v>
       </c>
       <c r="D11">
-        <v>167</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2442,13 +2840,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18355337.68750845</v>
+        <v>37451034.64603348</v>
       </c>
       <c r="C12">
-        <v>7395510.091953676</v>
+        <v>15016027.00054581</v>
       </c>
       <c r="D12">
-        <v>126</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2456,13 +2854,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24326743.8113947</v>
+        <v>52424028.44769956</v>
       </c>
       <c r="C13">
-        <v>9602299.039608123</v>
+        <v>20704783.12388692</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2470,13 +2868,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>28950253.97794415</v>
+        <v>63608234.0815426</v>
       </c>
       <c r="C14">
-        <v>11597135.39805573</v>
+        <v>25788501.4174098</v>
       </c>
       <c r="D14">
-        <v>104</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2484,13 +2882,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>35208905.15511813</v>
+        <v>73533671.25458439</v>
       </c>
       <c r="C15">
-        <v>14651145.33428127</v>
+        <v>30788960.22143411</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2498,13 +2896,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>40307802.34813082</v>
+        <v>83482305.63151233</v>
       </c>
       <c r="C16">
-        <v>17972007.10797752</v>
+        <v>36241379.29300391</v>
       </c>
       <c r="D16">
-        <v>84</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2512,13 +2910,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>44468578.03990176</v>
+        <v>90601105.97800721</v>
       </c>
       <c r="C17">
-        <v>20541706.50309085</v>
+        <v>41729590.98462321</v>
       </c>
       <c r="D17">
-        <v>97</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2526,13 +2924,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>50589334.41505728</v>
+        <v>95809948.21579632</v>
       </c>
       <c r="C18">
-        <v>24555860.8701263</v>
+        <v>46404304.83842502</v>
       </c>
       <c r="D18">
-        <v>113</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2540,13 +2938,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>56451775.73179739</v>
+        <v>98608367.10076492</v>
       </c>
       <c r="C19">
-        <v>28815652.69887533</v>
+        <v>50155978.3923462</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2554,13 +2952,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>51520809.89541996</v>
+        <v>95741696.40746424</v>
       </c>
       <c r="C20">
-        <v>27836028.7179323</v>
+        <v>50495135.15326063</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2568,13 +2966,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>46831051.03342497</v>
+        <v>95741582.98029591</v>
       </c>
       <c r="C21">
-        <v>25565322.17243249</v>
+        <v>52455709.55438338</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2582,13 +2980,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>41335475.96095885</v>
+        <v>90365806.27601919</v>
       </c>
       <c r="C22">
-        <v>23244721.04607402</v>
+        <v>50622971.77253167</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2596,13 +2994,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>43447026.92748524</v>
+        <v>88562185.51144587</v>
       </c>
       <c r="C23">
-        <v>25098195.19034132</v>
+        <v>50928553.45051148</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2610,13 +3008,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>38628948.15777901</v>
+        <v>84745252.10125822</v>
       </c>
       <c r="C24">
-        <v>22967270.29786055</v>
+        <v>49837509.79492937</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2624,13 +3022,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>33676434.709006</v>
+        <v>77142200.37887597</v>
       </c>
       <c r="C25">
-        <v>20566562.25725263</v>
+        <v>46284085.90274654</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2638,13 +3036,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>32154293.7801277</v>
+        <v>69476724.90464063</v>
       </c>
       <c r="C26">
-        <v>20228485.94954729</v>
+        <v>42552980.86111444</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2652,13 +3050,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>61137077.70058269</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>38156423.97726677</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2666,13 +3064,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>20075479.20318525</v>
+        <v>58547873.02879955</v>
       </c>
       <c r="C28">
-        <v>13632282.27155818</v>
+        <v>37193254.79344812</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2680,13 +3078,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>44512859.68249426</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>28746277.20653578</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2694,13 +3092,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>39609191.08779512</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>26020394.53213253</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2708,13 +3106,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>33427391.22876396</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>22315278.29597123</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2722,23 +3120,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>33278734.19956272</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>22590913.20428186</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>30654049.66053965</v>
       </c>
       <c r="C33">
+        <v>21181152.85494904</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -2749,7 +3245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2774,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>148232.4160075069</v>
+        <v>238990.7708144084</v>
       </c>
       <c r="C2">
-        <v>178431.7340954495</v>
+        <v>287996.3938639687</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2788,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>176941.1154175004</v>
+        <v>357155.4973337871</v>
       </c>
       <c r="C3">
-        <v>204524.5414468976</v>
+        <v>411871.024455885</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2802,13 +3298,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>425593.9423514102</v>
+        <v>748520.1993770485</v>
       </c>
       <c r="C4">
-        <v>281385.5763995705</v>
+        <v>439149.2856718336</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2816,13 +3312,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>641491.6838442971</v>
+        <v>1111907.713357527</v>
       </c>
       <c r="C5">
-        <v>453178.8217978802</v>
+        <v>848592.8439679476</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2830,13 +3326,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>915644.5111016056</v>
+        <v>1637474.089871832</v>
       </c>
       <c r="C6">
-        <v>765119.9066729372</v>
+        <v>1374715.027796568</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2844,13 +3340,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1174399.444384656</v>
+        <v>2285673.500854522</v>
       </c>
       <c r="C7">
-        <v>1079233.436886374</v>
+        <v>2097653.623732148</v>
       </c>
       <c r="D7">
-        <v>113</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2858,13 +3354,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1560663.404261898</v>
+        <v>3124647.743715313</v>
       </c>
       <c r="C8">
-        <v>1513967.738309511</v>
+        <v>3037043.490825019</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2872,13 +3368,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2391858.929139409</v>
+        <v>5162128.39965275</v>
       </c>
       <c r="C9">
-        <v>2205108.865035441</v>
+        <v>4602560.025842662</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2886,13 +3382,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5152016.656531985</v>
+        <v>10811255.55403547</v>
       </c>
       <c r="C10">
-        <v>3161337.920784454</v>
+        <v>6521975.94187822</v>
       </c>
       <c r="D10">
-        <v>115</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2900,13 +3396,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10720088.85002434</v>
+        <v>20551285.57203164</v>
       </c>
       <c r="C11">
-        <v>4759224.909977091</v>
+        <v>9267309.315538231</v>
       </c>
       <c r="D11">
-        <v>92</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2914,13 +3410,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15070241.97947793</v>
+        <v>32129931.43508708</v>
       </c>
       <c r="C12">
-        <v>6124947.851857306</v>
+        <v>12911745.38226015</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2928,13 +3424,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20658900.20168546</v>
+        <v>44820333.8203758</v>
       </c>
       <c r="C13">
-        <v>8132274.195795918</v>
+        <v>17701618.17081453</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2942,13 +3438,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>25483954.30629014</v>
+        <v>52419589.2968995</v>
       </c>
       <c r="C14">
-        <v>10316976.26321252</v>
+        <v>21144395.89483507</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2956,13 +3452,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>30836190.1161024</v>
+        <v>61834323.28427513</v>
       </c>
       <c r="C15">
-        <v>12395152.46317929</v>
+        <v>25729669.48121765</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2970,13 +3466,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>36524334.94768447</v>
+        <v>67959303.12974127</v>
       </c>
       <c r="C16">
-        <v>15379886.32763525</v>
+        <v>28970653.70193429</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2984,13 +3480,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>38267337.57320546</v>
+        <v>70199702.8866827</v>
       </c>
       <c r="C17">
-        <v>17590952.93612253</v>
+        <v>31897527.98095565</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2998,13 +3494,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>38786034.34460931</v>
+        <v>73214553.41593841</v>
       </c>
       <c r="C18">
-        <v>18833008.30514161</v>
+        <v>35129951.59398989</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3012,13 +3508,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>37499428.80990198</v>
+        <v>71337895.55761376</v>
       </c>
       <c r="C19">
-        <v>19024322.57130484</v>
+        <v>35905978.11811954</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3026,13 +3522,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>32605401.88988916</v>
+        <v>69874515.38250636</v>
       </c>
       <c r="C20">
-        <v>17133354.77089033</v>
+        <v>36409709.1648309</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3040,13 +3536,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>30202404.19473222</v>
+        <v>64937478.01405171</v>
       </c>
       <c r="C21">
-        <v>16380314.35854111</v>
+        <v>34906634.06215601</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3054,13 +3550,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>31623411.54597325</v>
+        <v>61993755.21771263</v>
       </c>
       <c r="C22">
-        <v>17658741.13618921</v>
+        <v>34276490.48521351</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3068,13 +3564,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>27677989.89375954</v>
+        <v>54262992.80293255</v>
       </c>
       <c r="C23">
-        <v>15869436.6529582</v>
+        <v>30801943.9518181</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3082,13 +3578,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25843775.73179041</v>
+        <v>49160772.43281857</v>
       </c>
       <c r="C24">
-        <v>15190731.57357546</v>
+        <v>28592380.86407509</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3096,13 +3592,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>26461509.57873917</v>
+        <v>42830550.46861606</v>
       </c>
       <c r="C25">
-        <v>15949617.08369717</v>
+        <v>25533647.93147948</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3110,13 +3606,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>22708644.85833731</v>
+        <v>34042482.91236477</v>
       </c>
       <c r="C26">
-        <v>14013329.19770294</v>
+        <v>20768094.41415801</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3124,13 +3620,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>32764043.19471775</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20473433.61985521</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3138,10 +3634,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>28776647.63450773</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>18429320.71731428</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3152,10 +3648,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22535202.80919556</v>
+        <v>21452941.94194993</v>
       </c>
       <c r="C29">
-        <v>15045659.77807443</v>
+        <v>14141658.79466894</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3203,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3211,6 +3707,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -3221,7 +3815,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3246,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>212108.9639195876</v>
+        <v>217664.5859702532</v>
       </c>
       <c r="C2">
-        <v>248523.6443183065</v>
+        <v>260524.3257300333</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3260,13 +3854,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>182661.6869522513</v>
+        <v>365581.1298688274</v>
       </c>
       <c r="C3">
-        <v>197702.8995158044</v>
+        <v>420296.757296951</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3274,13 +3868,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>417287.4138499465</v>
+        <v>822485.9171046825</v>
       </c>
       <c r="C4">
-        <v>261571.2316722649</v>
+        <v>528873.7049032429</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3288,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>545205.4043458102</v>
+        <v>1146610.249003738</v>
       </c>
       <c r="C5">
-        <v>393393.4931439263</v>
+        <v>859735.1812252814</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3302,13 +3896,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>745881.8144908848</v>
+        <v>1604715.11020789</v>
       </c>
       <c r="C6">
-        <v>608544.5272316263</v>
+        <v>1334722.560406925</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3316,13 +3910,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1165014.319306562</v>
+        <v>2278234.794231809</v>
       </c>
       <c r="C7">
-        <v>1075792.690583526</v>
+        <v>2097396.059356318</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3330,13 +3924,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1490115.482088314</v>
+        <v>3148506.795508843</v>
       </c>
       <c r="C8">
-        <v>1460599.311739882</v>
+        <v>3068779.805372952</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3344,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2234472.024923101</v>
+        <v>4629009.017430583</v>
       </c>
       <c r="C9">
-        <v>2089115.643347041</v>
+        <v>4346172.319668311</v>
       </c>
       <c r="D9">
-        <v>79</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3358,13 +3952,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4329534.573676942</v>
+        <v>7935407.814328562</v>
       </c>
       <c r="C10">
-        <v>2903897.197695856</v>
+        <v>5676779.937778479</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3372,13 +3966,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5531171.551344509</v>
+        <v>14948589.32026941</v>
       </c>
       <c r="C11">
-        <v>3031883.796894618</v>
+        <v>7503149.929586396</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3386,13 +3980,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11548169.37558913</v>
+        <v>26000420.89177822</v>
       </c>
       <c r="C12">
-        <v>4791171.483046062</v>
+        <v>10718418.88730886</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3400,13 +3994,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>14004849.41545101</v>
+        <v>33310525.56343579</v>
       </c>
       <c r="C13">
-        <v>5591533.221111467</v>
+        <v>13236138.63911409</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3414,13 +4008,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>15694310.85329803</v>
+        <v>40639789.45365229</v>
       </c>
       <c r="C14">
-        <v>6268420.381686993</v>
+        <v>16049519.76202649</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3428,13 +4022,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>23583259.20937916</v>
+        <v>49132437.43367442</v>
       </c>
       <c r="C15">
-        <v>8870654.542434588</v>
+        <v>19121349.28231511</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3442,13 +4036,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>24997776.75145942</v>
+        <v>53605400.07688024</v>
       </c>
       <c r="C16">
-        <v>9862862.678727942</v>
+        <v>21547999.1256685</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3456,13 +4050,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>21593052.89576853</v>
+        <v>57889814.90841973</v>
       </c>
       <c r="C17">
-        <v>8811026.001615196</v>
+        <v>24184109.46996064</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3470,13 +4064,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>21251502.69024511</v>
+        <v>58137821.26756634</v>
       </c>
       <c r="C18">
-        <v>9480260.769270768</v>
+        <v>25652869.93980025</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3484,13 +4078,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>31077994.27499496</v>
+        <v>55820403.51302473</v>
       </c>
       <c r="C19">
-        <v>14886851.62758257</v>
+        <v>26225710.45719764</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3498,13 +4092,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>34709860.61198464</v>
+        <v>58390280.95009612</v>
       </c>
       <c r="C20">
-        <v>17350189.58153018</v>
+        <v>28790747.08231938</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3512,13 +4106,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>27840202.05735143</v>
+        <v>55475863.23934379</v>
       </c>
       <c r="C21">
-        <v>14435539.04079427</v>
+        <v>28385481.24587586</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3526,13 +4120,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>31824339.19099986</v>
+        <v>50542190.94182135</v>
       </c>
       <c r="C22">
-        <v>16992548.59715987</v>
+        <v>26647749.05764224</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3540,13 +4134,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>32039500.04679491</v>
+        <v>44915092.92956156</v>
       </c>
       <c r="C23">
-        <v>17531926.68371474</v>
+        <v>24235794.07757312</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3554,13 +4148,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>28000209.03178589</v>
+        <v>41301982.91431122</v>
       </c>
       <c r="C24">
-        <v>15648091.12701523</v>
+        <v>22755071.26543081</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3568,13 +4162,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>21977209.9541284</v>
+        <v>34587088.79102442</v>
       </c>
       <c r="C25">
-        <v>12522428.35104</v>
+        <v>19413338.47361255</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3582,13 +4176,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>33975305.52672964</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>19418377.34971344</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3596,10 +4190,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>22003927.03745579</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>12815440.29769614</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3675,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3683,6 +4277,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -3693,7 +4385,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3718,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>105931.4585096444</v>
+        <v>249314.9707640711</v>
       </c>
       <c r="C2">
-        <v>115494.3534759</v>
+        <v>295187.4817990361</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3732,13 +4424,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>169120.3764115851</v>
+        <v>356485.2128582332</v>
       </c>
       <c r="C3">
-        <v>183225.4953783562</v>
+        <v>400614.9926999412</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3746,13 +4438,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>453932.3048525401</v>
+        <v>822707.8221197507</v>
       </c>
       <c r="C4">
-        <v>285402.806310448</v>
+        <v>517655.5775478758</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3760,13 +4452,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>593518.2057873792</v>
+        <v>1146746.769395577</v>
       </c>
       <c r="C5">
-        <v>416003.6996187788</v>
+        <v>845081.5426210758</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3774,13 +4466,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>757387.4252073795</v>
+        <v>1619560.842307955</v>
       </c>
       <c r="C6">
-        <v>633537.4260279308</v>
+        <v>1342521.717122115</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3788,13 +4480,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1020315.679261114</v>
+        <v>2216717.874773182</v>
       </c>
       <c r="C7">
-        <v>929962.1638461517</v>
+        <v>2027535.28929136</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3802,13 +4494,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1396894.233774139</v>
+        <v>3103418.109175012</v>
       </c>
       <c r="C8">
-        <v>1349385.251727218</v>
+        <v>3016379.976082142</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3816,13 +4508,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1955552.650518236</v>
+        <v>4375830.823105571</v>
       </c>
       <c r="C9">
-        <v>1890016.700484849</v>
+        <v>4207993.039725904</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3830,13 +4522,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3920509.518566277</v>
+        <v>7798018.740562907</v>
       </c>
       <c r="C10">
-        <v>2804403.386316069</v>
+        <v>5681915.11890801</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3844,13 +4536,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7768376.961635579</v>
+        <v>15348453.00448419</v>
       </c>
       <c r="C11">
-        <v>3899105.483022784</v>
+        <v>7901077.988870298</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3858,13 +4550,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10570693.6583797</v>
+        <v>21951993.61075345</v>
       </c>
       <c r="C12">
-        <v>4658621.387173501</v>
+        <v>9958618.592293646</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3872,13 +4564,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16633667.9869104</v>
+        <v>32457491.75452897</v>
       </c>
       <c r="C13">
-        <v>6744354.657392794</v>
+        <v>13228458.41091497</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3886,13 +4578,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>21867304.49642932</v>
+        <v>41813601.5313729</v>
       </c>
       <c r="C14">
-        <v>8516656.241998034</v>
+        <v>16431733.30231456</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3900,13 +4592,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25281524.66474955</v>
+        <v>49487192.30336792</v>
       </c>
       <c r="C15">
-        <v>9572609.384909157</v>
+        <v>18830545.41727343</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3914,13 +4606,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>32203694.34869325</v>
+        <v>59217655.5513069</v>
       </c>
       <c r="C16">
-        <v>11726921.74401995</v>
+        <v>21860107.4107585</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3928,13 +4620,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>32700189.42214911</v>
+        <v>68364061.33999358</v>
       </c>
       <c r="C17">
-        <v>12171223.33416951</v>
+        <v>24845507.88694048</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3942,13 +4634,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>34108670.40822186</v>
+        <v>64979558.4933084</v>
       </c>
       <c r="C18">
-        <v>13164733.53313294</v>
+        <v>26335647.44667763</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3956,13 +4648,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>32413587.09192367</v>
+        <v>66534901.35709459</v>
       </c>
       <c r="C19">
-        <v>14712167.53806979</v>
+        <v>28249956.46387184</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3970,13 +4662,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>31490062.65504052</v>
+        <v>65218369.3898228</v>
       </c>
       <c r="C20">
-        <v>13825508.65016382</v>
+        <v>29980589.06248023</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3984,13 +4676,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45243588.65416257</v>
+        <v>64724312.25133882</v>
       </c>
       <c r="C21">
-        <v>20301585.69968211</v>
+        <v>31693624.74585407</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3998,13 +4690,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>34579325.62175629</v>
+        <v>60281365.67108143</v>
       </c>
       <c r="C22">
-        <v>17840034.98930156</v>
+        <v>30933004.31727163</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4012,13 +4704,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34360916.18216329</v>
+        <v>61043439.59718396</v>
       </c>
       <c r="C23">
-        <v>18286831.27118817</v>
+        <v>32483614.76421953</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4026,13 +4718,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>37032440.18963189</v>
+        <v>48937069.66444413</v>
       </c>
       <c r="C24">
-        <v>20204398.40493072</v>
+        <v>26772148.79323841</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4040,13 +4732,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>30650601.80414245</v>
+        <v>40193358.1398306</v>
       </c>
       <c r="C25">
-        <v>17161215.21270655</v>
+        <v>22507171.91093828</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4054,13 +4746,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>44995072.20310732</v>
+        <v>46134898.29912208</v>
       </c>
       <c r="C26">
-        <v>25715849.68007284</v>
+        <v>26335476.86008666</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4068,13 +4760,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>39078102.49734451</v>
+        <v>42140163.12795272</v>
       </c>
       <c r="C27">
-        <v>22710114.19165401</v>
+        <v>24455668.10211866</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4082,13 +4774,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>35660844.11924174</v>
+        <v>41158506.29236148</v>
       </c>
       <c r="C28">
-        <v>21026858.16908035</v>
+        <v>24239936.44014057</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4096,10 +4788,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>43204124.12474123</v>
+        <v>44131872.30117485</v>
       </c>
       <c r="C29">
-        <v>25851909.78977142</v>
+        <v>26362827.34648152</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4147,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4155,6 +4847,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4955,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4189,8 +4979,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>277643.351135681</v>
+      </c>
+      <c r="C2">
+        <v>327478.8369292286</v>
+      </c>
       <c r="D2">
-        <v>29</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4198,13 +4994,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>249248.3589343122</v>
+        <v>354256.2207244491</v>
       </c>
       <c r="C3">
-        <v>173141.3691002736</v>
+        <v>398403.5882823823</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4212,13 +5008,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>445850.0535798154</v>
+        <v>807595.3972649405</v>
       </c>
       <c r="C4">
-        <v>269554.542728027</v>
+        <v>477167.1926162554</v>
       </c>
       <c r="D4">
-        <v>71</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4226,13 +5022,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>611620.5540785099</v>
+        <v>1165102.903978634</v>
       </c>
       <c r="C5">
-        <v>429216.3283033757</v>
+        <v>833559.0609068359</v>
       </c>
       <c r="D5">
-        <v>87</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4240,13 +5036,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>835850.67557142</v>
+        <v>1584352.040054186</v>
       </c>
       <c r="C6">
-        <v>696214.5080119268</v>
+        <v>1297576.744070706</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4254,13 +5050,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1181054.192103103</v>
+        <v>2307047.238569406</v>
       </c>
       <c r="C7">
-        <v>1093903.569102619</v>
+        <v>2127219.93171235</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4268,13 +5064,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1796080.366084605</v>
+        <v>3320126.381459961</v>
       </c>
       <c r="C8">
-        <v>1760555.529663204</v>
+        <v>3236214.670831268</v>
       </c>
       <c r="D8">
-        <v>158</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4282,13 +5078,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2642758.753427959</v>
+        <v>4980347.494156474</v>
       </c>
       <c r="C9">
-        <v>2481264.593749654</v>
+        <v>4694669.06040241</v>
       </c>
       <c r="D9">
-        <v>186</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4296,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4975513.348543972</v>
+        <v>8618621.022662116</v>
       </c>
       <c r="C10">
-        <v>3526256.185156761</v>
+        <v>6279156.789467253</v>
       </c>
       <c r="D10">
-        <v>128</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4310,13 +5106,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6960280.594848596</v>
+        <v>15450810.9100081</v>
       </c>
       <c r="C11">
-        <v>3999295.968089465</v>
+        <v>8235358.613599233</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4324,13 +5120,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12462410.47618277</v>
+        <v>24235336.01483945</v>
       </c>
       <c r="C12">
-        <v>5808235.19510515</v>
+        <v>11100629.84106234</v>
       </c>
       <c r="D12">
-        <v>138</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4338,13 +5134,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>17011223.37729978</v>
+        <v>34854745.86965302</v>
       </c>
       <c r="C13">
-        <v>7257691.639801558</v>
+        <v>14551455.18437611</v>
       </c>
       <c r="D13">
-        <v>107</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4352,13 +5148,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22551184.54632381</v>
+        <v>44698723.5736595</v>
       </c>
       <c r="C14">
-        <v>8968776.118932417</v>
+        <v>17812804.06782769</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4366,13 +5162,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>29674581.87902764</v>
+        <v>54665315.06043133</v>
       </c>
       <c r="C15">
-        <v>11251663.7070625</v>
+        <v>20878899.60223452</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4380,13 +5176,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35684839.49151973</v>
+        <v>68005551.40300861</v>
       </c>
       <c r="C16">
-        <v>13064358.60285668</v>
+        <v>24873206.25348771</v>
       </c>
       <c r="D16">
-        <v>67</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4394,13 +5190,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>42974290.75325061</v>
+        <v>76207740.54002693</v>
       </c>
       <c r="C17">
-        <v>15310100.14355492</v>
+        <v>27088016.6797746</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4408,13 +5204,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>47902553.31875461</v>
+        <v>87204713.67302825</v>
       </c>
       <c r="C18">
-        <v>19280890.4909256</v>
+        <v>31771124.65727016</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4422,13 +5218,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>44658752.07693569</v>
+        <v>86721645.29353562</v>
       </c>
       <c r="C19">
-        <v>18476523.12353385</v>
+        <v>35512938.80105798</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4436,13 +5232,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>47060113.34523965</v>
+        <v>87902340.61577836</v>
       </c>
       <c r="C20">
-        <v>20721898.76355417</v>
+        <v>37575189.49801119</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4450,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>49421067.90278133</v>
+        <v>82787126.16475277</v>
       </c>
       <c r="C21">
-        <v>22972728.19090535</v>
+        <v>38728247.24160319</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4464,13 +5260,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>46396707.94140083</v>
+        <v>80153323.87583718</v>
       </c>
       <c r="C22">
-        <v>23289503.56869032</v>
+        <v>39764501.00011575</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4478,13 +5274,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>29463144.10821518</v>
+        <v>79383195.22939205</v>
       </c>
       <c r="C23">
-        <v>15534528.85570524</v>
+        <v>41306121.71870117</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4492,13 +5288,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>68144256.24611382</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>36799611.97532173</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4506,13 +5302,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>55731439.76414701</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>30949558.73486582</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4520,13 +5316,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>46256137.41769286</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>26211963.60735723</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4534,13 +5330,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>43125653.24880406</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24784255.95347816</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4548,10 +5344,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>27557909.02884636</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>16029307.87508263</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4613,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4621,6 +5417,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -4631,7 +5525,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4656,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>193890.6108370764</v>
+        <v>235807.788460717</v>
       </c>
       <c r="C2">
-        <v>219062.9002066846</v>
+        <v>277771.9789400196</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4670,13 +5564,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>201737.4988197239</v>
+        <v>353611.677517169</v>
       </c>
       <c r="C3">
-        <v>184611.7914945341</v>
+        <v>406610.5531798239</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4684,13 +5578,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>419894.732880957</v>
+        <v>768788.3499700638</v>
       </c>
       <c r="C4">
-        <v>240756.4264887031</v>
+        <v>439647.2335391979</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4698,13 +5592,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>501117.0480046399</v>
+        <v>1158560.687606689</v>
       </c>
       <c r="C5">
-        <v>351754.9316443722</v>
+        <v>823063.1010161465</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4712,13 +5606,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>830205.8919496158</v>
+        <v>1568423.747976171</v>
       </c>
       <c r="C6">
-        <v>690396.7179710639</v>
+        <v>1268763.651865075</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4726,13 +5620,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1126913.238646785</v>
+        <v>2270783.101393109</v>
       </c>
       <c r="C7">
-        <v>1027085.890661622</v>
+        <v>2080497.69803456</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4740,13 +5634,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1403001.960461273</v>
+        <v>3136326.570556377</v>
       </c>
       <c r="C8">
-        <v>1352318.36458949</v>
+        <v>3032937.589913093</v>
       </c>
       <c r="D8">
-        <v>111</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4754,13 +5648,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2168002.598215421</v>
+        <v>4628265.545514588</v>
       </c>
       <c r="C9">
-        <v>2104455.243369369</v>
+        <v>4473424.397566576</v>
       </c>
       <c r="D9">
-        <v>131</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4768,13 +5662,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3367441.317202757</v>
+        <v>7660590.396364116</v>
       </c>
       <c r="C10">
-        <v>2875201.589325103</v>
+        <v>6049464.602907855</v>
       </c>
       <c r="D10">
-        <v>139</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4782,13 +5676,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6413442.606249175</v>
+        <v>13040747.04495207</v>
       </c>
       <c r="C11">
-        <v>3857449.76903558</v>
+        <v>7868741.563450551</v>
       </c>
       <c r="D11">
-        <v>135</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4796,13 +5690,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10489702.22424824</v>
+        <v>21204539.32716372</v>
       </c>
       <c r="C12">
-        <v>5004338.313125173</v>
+        <v>10218494.42198819</v>
       </c>
       <c r="D12">
-        <v>138</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4810,13 +5704,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>14826875.41257079</v>
+        <v>29641888.04623617</v>
       </c>
       <c r="C13">
-        <v>6632455.623507404</v>
+        <v>12985161.34779311</v>
       </c>
       <c r="D13">
-        <v>183</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4824,13 +5718,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>23440389.45667317</v>
+        <v>40718656.7856264</v>
       </c>
       <c r="C14">
-        <v>9543690.69459931</v>
+        <v>16568369.90346786</v>
       </c>
       <c r="D14">
-        <v>167</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4838,13 +5732,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>27909308.27318364</v>
+        <v>48000004.75376929</v>
       </c>
       <c r="C15">
-        <v>11012887.71564991</v>
+        <v>18908278.88092664</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4852,13 +5746,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>32340788.78535663</v>
+        <v>61608500.74264832</v>
       </c>
       <c r="C16">
-        <v>12088537.45995664</v>
+        <v>22846569.30838021</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>986</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4866,13 +5760,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>39586415.82705514</v>
+        <v>75803647.91966224</v>
       </c>
       <c r="C17">
-        <v>14181627.76695795</v>
+        <v>27262414.07406618</v>
       </c>
       <c r="D17">
-        <v>64</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4880,13 +5774,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>45565857.06733359</v>
+        <v>87609654.99616049</v>
       </c>
       <c r="C18">
-        <v>17006364.14062192</v>
+        <v>30998536.56980253</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4894,13 +5788,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>51257412.53047216</v>
+        <v>87541775.12882282</v>
       </c>
       <c r="C19">
-        <v>20765075.35157519</v>
+        <v>34193792.52088004</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4908,13 +5802,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>57998310.31720138</v>
+        <v>87828627.49400271</v>
       </c>
       <c r="C20">
-        <v>24507254.10396558</v>
+        <v>36566093.58447769</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4922,13 +5816,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>53331486.8825395</v>
+        <v>84252034.76377177</v>
       </c>
       <c r="C21">
-        <v>23611703.85182725</v>
+        <v>37137797.24754734</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4936,13 +5830,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>37758960.73285512</v>
+        <v>76519407.51177016</v>
       </c>
       <c r="C22">
-        <v>17899786.61409719</v>
+        <v>36252085.79737274</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4950,13 +5844,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>39078222.7163711</v>
+        <v>67958714.77804804</v>
       </c>
       <c r="C23">
-        <v>19731757.16132887</v>
+        <v>34204756.98497116</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4964,13 +5858,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>28239880.313929</v>
+        <v>53345817.87434667</v>
       </c>
       <c r="C24">
-        <v>14883665.64448587</v>
+        <v>28130599.91596242</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4978,13 +5872,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>47534991.66498253</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25938876.60773354</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4992,13 +5886,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>20579161.92165246</v>
+        <v>40989122.47653181</v>
       </c>
       <c r="C26">
-        <v>11272857.22426874</v>
+        <v>22889737.81442164</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5006,10 +5900,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>33111161.55103647</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>18790892.00215182</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5085,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5093,6 +5987,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -5103,7 +6095,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5127,8 +6119,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>241044.0819995701</v>
+      </c>
+      <c r="C2">
+        <v>286458.012333939</v>
+      </c>
       <c r="D2">
-        <v>28</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5136,13 +6134,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>169775.2569350424</v>
+        <v>369074.2167943605</v>
       </c>
       <c r="C3">
-        <v>193814.4096884108</v>
+        <v>427476.9790569057</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5150,13 +6148,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>451618.8093111477</v>
+        <v>773056.8349424961</v>
       </c>
       <c r="C4">
-        <v>238315.4462693068</v>
+        <v>435675.3092621825</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5164,13 +6162,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>566625.0996177648</v>
+        <v>1124955.010800812</v>
       </c>
       <c r="C5">
-        <v>392301.9620500178</v>
+        <v>809794.545794477</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5178,13 +6176,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>741819.7594019</v>
+        <v>1571970.230314162</v>
       </c>
       <c r="C6">
-        <v>609609.8212660546</v>
+        <v>1263546.571866596</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5192,13 +6190,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1022821.926616775</v>
+        <v>2190577.784261236</v>
       </c>
       <c r="C7">
-        <v>927481.3577855205</v>
+        <v>1986675.344462553</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5206,13 +6204,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1397256.38605003</v>
+        <v>3036973.596681338</v>
       </c>
       <c r="C8">
-        <v>1334453.799734759</v>
+        <v>2917261.281159647</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5220,13 +6218,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2135823.440142768</v>
+        <v>4149953.022990331</v>
       </c>
       <c r="C9">
-        <v>2077262.837481081</v>
+        <v>4082890.205693442</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5234,13 +6232,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2937958.641527156</v>
+        <v>5987403.769135522</v>
       </c>
       <c r="C10">
-        <v>2690130.431509621</v>
+        <v>5429547.387327106</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5248,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4560324.440946448</v>
+        <v>9719361.539321734</v>
       </c>
       <c r="C11">
-        <v>3366514.754824252</v>
+        <v>6879971.37602571</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5262,13 +6260,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6510703.23785641</v>
+        <v>15146062.78618506</v>
       </c>
       <c r="C12">
-        <v>4062738.124342416</v>
+        <v>8632214.625024151</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5276,13 +6274,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10774325.67808563</v>
+        <v>21715140.85884852</v>
       </c>
       <c r="C13">
-        <v>5130827.591569941</v>
+        <v>10594256.75503512</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5290,13 +6288,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>14154982.04964383</v>
+        <v>26697850.37028017</v>
       </c>
       <c r="C14">
-        <v>6262542.244325132</v>
+        <v>12153294.28674641</v>
       </c>
       <c r="D14">
-        <v>62</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5304,13 +6302,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>19036211.09510742</v>
+        <v>33308918.23762312</v>
       </c>
       <c r="C15">
-        <v>7840377.368463312</v>
+        <v>14047894.51380582</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5318,13 +6316,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>18509703.30663216</v>
+        <v>40561364.68216246</v>
       </c>
       <c r="C16">
-        <v>7442503.551774682</v>
+        <v>16310256.50839648</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5332,13 +6330,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>21528280.03014614</v>
+        <v>53698145.35702236</v>
       </c>
       <c r="C17">
-        <v>8389070.434601212</v>
+        <v>20239260.07727269</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5346,13 +6344,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25402525.56795052</v>
+        <v>65440131.33763424</v>
       </c>
       <c r="C18">
-        <v>9147012.362223571</v>
+        <v>23180186.48174964</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5360,13 +6358,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>36880967.58550575</v>
+        <v>71887026.57794891</v>
       </c>
       <c r="C19">
-        <v>13031319.47968617</v>
+        <v>25022463.52110936</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5374,13 +6372,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>40635362.83930857</v>
+        <v>75273206.97912136</v>
       </c>
       <c r="C20">
-        <v>14001750.09212773</v>
+        <v>26309185.08805929</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5388,13 +6386,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42775831.30040184</v>
+        <v>71250965.37640242</v>
       </c>
       <c r="C21">
-        <v>15189164.26420149</v>
+        <v>25915603.53459289</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5402,13 +6400,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>38819704.80126664</v>
+        <v>65983486.38020855</v>
       </c>
       <c r="C22">
-        <v>14381770.57028088</v>
+        <v>25295558.41338098</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5416,13 +6414,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>32986375.37546695</v>
+        <v>57335419.54915931</v>
       </c>
       <c r="C23">
-        <v>12860071.83448399</v>
+        <v>23464109.24970669</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5430,13 +6428,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>35616963.11948068</v>
+        <v>57991174.81127311</v>
       </c>
       <c r="C24">
-        <v>14721093.00938854</v>
+        <v>24555650.05550671</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5444,13 +6442,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24397952.89757907</v>
+        <v>50181815.26674319</v>
       </c>
       <c r="C25">
-        <v>10568577.38835981</v>
+        <v>22647542.09050823</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5458,13 +6456,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>24049316.85940525</v>
+        <v>42588437.27907441</v>
       </c>
       <c r="C26">
-        <v>11207159.47838171</v>
+        <v>20566371.37459319</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5472,13 +6470,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>41070827.51971038</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>21163953.50438235</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5486,13 +6484,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23096261.55907077</v>
+        <v>37242263.561342</v>
       </c>
       <c r="C28">
-        <v>12193501.63663228</v>
+        <v>20192009.26082937</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5500,13 +6498,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22833032.59055008</v>
+        <v>32306269.46687127</v>
       </c>
       <c r="C29">
-        <v>12535129.91524483</v>
+        <v>18141112.79685806</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5514,10 +6512,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>22919753.61512095</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>13133417.38778936</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5551,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5559,6 +6557,104 @@
         <v>0</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -5569,7 +6665,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5594,13 +6690,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>218106.0419434936</v>
+        <v>263650.8754927774</v>
       </c>
       <c r="C2">
-        <v>226279.6866254502</v>
+        <v>313702.8411566139</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5608,13 +6704,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>220940.607370766</v>
+        <v>367289.6438083914</v>
       </c>
       <c r="C3">
-        <v>240884.6973533947</v>
+        <v>425190.2632699009</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5622,13 +6718,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>429258.4545989363</v>
+        <v>772553.8312870971</v>
       </c>
       <c r="C4">
-        <v>255010.9802055415</v>
+        <v>440559.1353026037</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5636,13 +6732,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>614553.16668277</v>
+        <v>1158624.172021714</v>
       </c>
       <c r="C5">
-        <v>427543.3253414768</v>
+        <v>837716.3475070724</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5650,13 +6746,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>791717.7808824101</v>
+        <v>1574201.996015228</v>
       </c>
       <c r="C6">
-        <v>641747.6882554821</v>
+        <v>1248492.401986807</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5664,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1102962.393815281</v>
+        <v>2234701.268902616</v>
       </c>
       <c r="C7">
-        <v>994596.2715559481</v>
+        <v>2030179.405860892</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5678,13 +6774,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1556585.894447547</v>
+        <v>3038110.940676915</v>
       </c>
       <c r="C8">
-        <v>1493611.21523382</v>
+        <v>2911860.224483884</v>
       </c>
       <c r="D8">
-        <v>129</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5692,13 +6788,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1889958.652469648</v>
+        <v>4065776.659609117</v>
       </c>
       <c r="C9">
-        <v>1848628.722549974</v>
+        <v>4001062.284403476</v>
       </c>
       <c r="D9">
-        <v>113</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5706,13 +6802,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2645373.736293501</v>
+        <v>5967260.637245113</v>
       </c>
       <c r="C10">
-        <v>2544699.594102574</v>
+        <v>5409454.683510018</v>
       </c>
       <c r="D10">
-        <v>136</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5720,13 +6816,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5165094.190302266</v>
+        <v>10011161.24218806</v>
       </c>
       <c r="C11">
-        <v>3589824.969201768</v>
+        <v>7071007.647140589</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5734,13 +6830,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8306519.922213671</v>
+        <v>15528434.07135978</v>
       </c>
       <c r="C12">
-        <v>4324113.22201681</v>
+        <v>8697056.396073507</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5748,13 +6844,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11041179.46907875</v>
+        <v>23087125.77051989</v>
       </c>
       <c r="C13">
-        <v>5077913.449094522</v>
+        <v>10994290.0792726</v>
       </c>
       <c r="D13">
-        <v>65</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5762,13 +6858,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>17858377.08684876</v>
+        <v>32641052.42185154</v>
       </c>
       <c r="C14">
-        <v>7305270.103312463</v>
+        <v>13994039.45005825</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5776,13 +6872,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>19735341.62220092</v>
+        <v>41942646.87301133</v>
       </c>
       <c r="C15">
-        <v>7889055.0938519</v>
+        <v>17024400.34425999</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5790,13 +6886,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>26483805.13555935</v>
+        <v>50726252.33167971</v>
       </c>
       <c r="C16">
-        <v>9873019.806206202</v>
+        <v>19814220.03994521</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5804,13 +6900,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>26558168.32750307</v>
+        <v>65903150.31497649</v>
       </c>
       <c r="C17">
-        <v>9735454.08821233</v>
+        <v>23998620.72281174</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5818,13 +6914,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>34922126.22552863</v>
+        <v>76342829.87087904</v>
       </c>
       <c r="C18">
-        <v>12413058.45032181</v>
+        <v>27081931.57063218</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5832,13 +6928,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>38405765.99763384</v>
+        <v>86569919.75533599</v>
       </c>
       <c r="C19">
-        <v>13800220.54501233</v>
+        <v>30328269.42631475</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5846,13 +6942,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>45843050.89925755</v>
+        <v>88908882.30463265</v>
       </c>
       <c r="C20">
-        <v>18950591.71210355</v>
+        <v>33442579.42038266</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5860,13 +6956,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>42509497.44738369</v>
+        <v>81685270.2949298</v>
       </c>
       <c r="C21">
-        <v>17983957.97300925</v>
+        <v>33883136.17562475</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5874,13 +6970,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>32645042.52757239</v>
+        <v>77597978.45999423</v>
       </c>
       <c r="C22">
-        <v>15092534.88306355</v>
+        <v>34093231.58122019</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5888,13 +6984,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>35848573.50849028</v>
+        <v>73462026.23830256</v>
       </c>
       <c r="C23">
-        <v>17853799.95513769</v>
+        <v>34948829.31175497</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5902,13 +6998,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>34296831.98331557</v>
+        <v>68393164.23136057</v>
       </c>
       <c r="C24">
-        <v>18065114.67517481</v>
+        <v>34514829.49972437</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5916,13 +7012,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>30991774.75660745</v>
+        <v>62102076.51016004</v>
       </c>
       <c r="C25">
-        <v>16892875.02741285</v>
+        <v>32710926.01988091</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5930,13 +7026,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>31666363.26039666</v>
+        <v>57221048.72638719</v>
       </c>
       <c r="C26">
-        <v>17589076.56093511</v>
+        <v>31129615.0145908</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5944,13 +7040,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>21604922.72743525</v>
+        <v>49448251.78931864</v>
       </c>
       <c r="C27">
-        <v>12170288.43308553</v>
+        <v>27586509.55400306</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5958,13 +7054,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>21899248.62900913</v>
+        <v>50114064.67165431</v>
       </c>
       <c r="C28">
-        <v>12535129.91524483</v>
+        <v>28526919.59655945</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5972,13 +7068,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>44767438.61640985</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>25928023.53128455</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5986,13 +7082,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>44375241.22215994</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>26085820.39659634</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6000,13 +7096,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>44592908.70570925</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>26558249.35186376</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6014,23 +7110,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>37484197.90035744</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>22596095.11575895</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>25565620.83447784</v>
       </c>
       <c r="C33">
+        <v>15591389.05390934</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>25976450.73875805</v>
+      </c>
+      <c r="C34">
+        <v>16028060.07157178</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>36941891.16079662</v>
+      </c>
+      <c r="C35">
+        <v>23069093.31487918</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>26231795.9777723</v>
+      </c>
+      <c r="C36">
+        <v>16607076.20532278</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -6041,7 +7235,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6065,8 +7259,14 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>228527.2611044059</v>
+      </c>
+      <c r="C2">
+        <v>272236.5930011907</v>
+      </c>
       <c r="D2">
-        <v>47</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6074,13 +7274,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>208715.6729252455</v>
+        <v>380475.683223847</v>
       </c>
       <c r="C3">
-        <v>235412.9304290901</v>
+        <v>436820.738178243</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6088,13 +7288,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>438919.8513442251</v>
+        <v>751479.7689469887</v>
       </c>
       <c r="C4">
-        <v>252617.2326669548</v>
+        <v>442485.8157555051</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6102,13 +7302,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>687236.9350958774</v>
+        <v>1162026.684057224</v>
       </c>
       <c r="C5">
-        <v>488494.9295359416</v>
+        <v>878914.6289901877</v>
       </c>
       <c r="D5">
-        <v>144</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6116,13 +7316,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>922942.8057397995</v>
+        <v>1684808.104616306</v>
       </c>
       <c r="C6">
-        <v>780460.2575538014</v>
+        <v>1389441.298291014</v>
       </c>
       <c r="D6">
-        <v>138</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6130,13 +7330,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1188864.142771473</v>
+        <v>2419651.735817662</v>
       </c>
       <c r="C7">
-        <v>1075976.391450176</v>
+        <v>2213284.91579579</v>
       </c>
       <c r="D7">
-        <v>145</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6144,13 +7344,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1668797.154792182</v>
+        <v>3393912.103911327</v>
       </c>
       <c r="C8">
-        <v>1626697.263000066</v>
+        <v>3288890.310780694</v>
       </c>
       <c r="D8">
-        <v>188</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6158,13 +7358,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2586617.016477737</v>
+        <v>5271278.318025526</v>
       </c>
       <c r="C9">
-        <v>2428653.195921632</v>
+        <v>4906351.170939412</v>
       </c>
       <c r="D9">
-        <v>218</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6172,13 +7372,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5184184.486074598</v>
+        <v>10379705.46398642</v>
       </c>
       <c r="C10">
-        <v>3574434.953244331</v>
+        <v>7091268.396830135</v>
       </c>
       <c r="D10">
-        <v>168</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6186,13 +7386,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8925837.940441106</v>
+        <v>20064667.19295752</v>
       </c>
       <c r="C11">
-        <v>4536241.844868206</v>
+        <v>9950515.45002144</v>
       </c>
       <c r="D11">
-        <v>157</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6200,13 +7400,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14582118.67101977</v>
+        <v>32801333.51948837</v>
       </c>
       <c r="C12">
-        <v>6238051.02116985</v>
+        <v>13766554.21185675</v>
       </c>
       <c r="D12">
-        <v>118</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6214,13 +7414,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>18458583.7754162</v>
+        <v>45079941.09542164</v>
       </c>
       <c r="C13">
-        <v>7490833.106075682</v>
+        <v>17962758.94747492</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6228,13 +7428,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>26877426.03488958</v>
+        <v>58028954.96759442</v>
       </c>
       <c r="C14">
-        <v>10597890.41884854</v>
+        <v>22740492.35097458</v>
       </c>
       <c r="D14">
-        <v>125</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6242,13 +7442,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>35080417.90965152</v>
+        <v>72298628.14013378</v>
       </c>
       <c r="C15">
-        <v>13285130.29420572</v>
+        <v>27751607.15206182</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6256,13 +7456,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>37517354.76624586</v>
+        <v>86551657.84166989</v>
       </c>
       <c r="C16">
-        <v>13934491.90263851</v>
+        <v>32429550.14643949</v>
       </c>
       <c r="D16">
-        <v>73</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6270,13 +7470,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40705093.28003488</v>
+        <v>93468049.58042128</v>
       </c>
       <c r="C17">
-        <v>16366532.86655027</v>
+        <v>37573601.97820183</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6284,13 +7484,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>41916167.22940018</v>
+        <v>101111419.8427174</v>
       </c>
       <c r="C18">
-        <v>18354351.60886294</v>
+        <v>42307582.09010012</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6298,13 +7498,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>45055495.90625604</v>
+        <v>104569786.0760291</v>
       </c>
       <c r="C19">
-        <v>18889771.28935695</v>
+        <v>45859468.91219528</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6312,13 +7512,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>42576990.73586856</v>
+        <v>99566232.75192028</v>
       </c>
       <c r="C20">
-        <v>20110787.34655138</v>
+        <v>48044236.20667449</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6326,13 +7526,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45149385.84340739</v>
+        <v>99399505.03725357</v>
       </c>
       <c r="C21">
-        <v>22700215.16634961</v>
+        <v>50082494.82478534</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6340,13 +7540,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>43500843.5372396</v>
+        <v>96129429.03862818</v>
       </c>
       <c r="C22">
-        <v>22583578.0866255</v>
+        <v>50094539.11654409</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6354,13 +7554,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>40069547.15870941</v>
+        <v>93001757.82106431</v>
       </c>
       <c r="C23">
-        <v>21353231.10155616</v>
+        <v>49735387.50205979</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6368,13 +7568,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>44662337.54700924</v>
+        <v>90128317.81006451</v>
       </c>
       <c r="C24">
-        <v>24299365.59178619</v>
+        <v>49274513.07566752</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6382,13 +7582,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>39099384.04694834</v>
+        <v>84403981.17416254</v>
       </c>
       <c r="C25">
-        <v>21634112.1095397</v>
+        <v>47057597.47556008</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6396,13 +7596,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>36183264.54939601</v>
+        <v>79517291.90566404</v>
       </c>
       <c r="C26">
-        <v>20283753.83528191</v>
+        <v>45184756.00376587</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6410,13 +7610,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>21948740.93091069</v>
+        <v>70180394.19750039</v>
       </c>
       <c r="C27">
-        <v>12443591.05597557</v>
+        <v>40581136.75067879</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6424,13 +7624,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>22296063.01416678</v>
+        <v>64965605.28107479</v>
       </c>
       <c r="C28">
-        <v>12768575.90563006</v>
+        <v>38174835.549065</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6438,13 +7638,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22582067.20126164</v>
+        <v>65064805.13081688</v>
       </c>
       <c r="C29">
-        <v>13058521.95747815</v>
+        <v>38823270.7974778</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6452,13 +7652,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>58045077.66733199</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>35132954.95951128</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6466,13 +7666,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>45869931.68781923</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>28136780.57084917</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6480,23 +7680,121 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>41605099.70124671</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>25849305.43767184</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>30838773.70163744</v>
       </c>
       <c r="C33">
+        <v>19397155.30709837</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>34575439.2777012</v>
+      </c>
+      <c r="C34">
+        <v>22014657.10107804</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34738566.31895605</v>
+      </c>
+      <c r="C35">
+        <v>22392789.04123062</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>34863649.59793945</v>
+      </c>
+      <c r="C36">
+        <v>22747864.15576413</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>26561598.66212517</v>
+      </c>
+      <c r="C37">
+        <v>17539984.19691857</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>

--- a/example_output/csv_data/Validation_wind_condensed_vm_vise.xlsx
+++ b/example_output/csv_data/Validation_wind_condensed_vm_vise.xlsx
@@ -588,10 +588,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>102316021.8013181</v>
+        <v>101080047.2804286</v>
       </c>
       <c r="C14">
-        <v>40462783.34347743</v>
+        <v>39758439.78462993</v>
       </c>
       <c r="D14">
         <v>19141</v>
@@ -602,10 +602,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>123918935.0323054</v>
+        <v>124696841.3759438</v>
       </c>
       <c r="C15">
-        <v>48122522.82490514</v>
+        <v>47314736.6349548</v>
       </c>
       <c r="D15">
         <v>16467</v>
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>144270442.4023428</v>
+        <v>145580277.9066491</v>
       </c>
       <c r="C16">
-        <v>57473994.24956113</v>
+        <v>57394610.27960317</v>
       </c>
       <c r="D16">
         <v>14069</v>
@@ -630,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>158280559.3508453</v>
+        <v>168598227.0585145</v>
       </c>
       <c r="C17">
-        <v>66227692.30387367</v>
+        <v>66289703.25172374</v>
       </c>
       <c r="D17">
         <v>12016</v>
@@ -1158,10 +1158,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>68316084.82322711</v>
+        <v>67476434.57885192</v>
       </c>
       <c r="C14">
-        <v>27263543.79146513</v>
+        <v>26600521.16821748</v>
       </c>
       <c r="D14">
         <v>2989</v>
@@ -1186,10 +1186,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>95131890.16305852</v>
+        <v>99711716.6615762</v>
       </c>
       <c r="C16">
-        <v>39708709.91734812</v>
+        <v>39683389.52205569</v>
       </c>
       <c r="D16">
         <v>2479</v>
@@ -1200,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>107481308.4533038</v>
+        <v>107771815.1815404</v>
       </c>
       <c r="C17">
-        <v>45563198.87650407</v>
+        <v>45578651.36204857</v>
       </c>
       <c r="D17">
         <v>2176</v>
@@ -1728,10 +1728,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>65863553.99905889</v>
+        <v>64761874.18430185</v>
       </c>
       <c r="C14">
-        <v>26351271.22695855</v>
+        <v>25729585.83296733</v>
       </c>
       <c r="D14">
         <v>2450</v>
@@ -1742,10 +1742,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>76107963.49244782</v>
+        <v>75987788.15837739</v>
       </c>
       <c r="C15">
-        <v>31424309.15000538</v>
+        <v>31264075.37124481</v>
       </c>
       <c r="D15">
         <v>2252</v>
@@ -1756,10 +1756,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>89224064.68256819</v>
+        <v>90820153.21959911</v>
       </c>
       <c r="C16">
-        <v>37594070.2673069</v>
+        <v>37627259.25389922</v>
       </c>
       <c r="D16">
         <v>1944</v>
@@ -2298,10 +2298,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>63262558.01577639</v>
+        <v>62354363.96756563</v>
       </c>
       <c r="C14">
-        <v>25358208.5426955</v>
+        <v>24828532.35635889</v>
       </c>
       <c r="D14">
         <v>2254</v>
@@ -2312,10 +2312,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>73698921.33231975</v>
+        <v>73578207.32170214</v>
       </c>
       <c r="C15">
-        <v>30398805.72378104</v>
+        <v>30241877.50997814</v>
       </c>
       <c r="D15">
         <v>1975</v>
@@ -2326,10 +2326,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>85488407.03078419</v>
+        <v>85625636.96112494</v>
       </c>
       <c r="C16">
-        <v>36144027.82315234</v>
+        <v>36149867.3946562</v>
       </c>
       <c r="D16">
         <v>1688</v>
@@ -2854,10 +2854,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>52424028.44769956</v>
+        <v>52316963.5169438</v>
       </c>
       <c r="C13">
-        <v>20704783.12388692</v>
+        <v>20655344.31762617</v>
       </c>
       <c r="D13">
         <v>2261</v>
@@ -2868,10 +2868,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>63608234.0815426</v>
+        <v>63499507.22019055</v>
       </c>
       <c r="C14">
-        <v>25788501.4174098</v>
+        <v>25708466.36669232</v>
       </c>
       <c r="D14">
         <v>1927</v>
@@ -2882,10 +2882,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>73533671.25458439</v>
+        <v>73382773.42880546</v>
       </c>
       <c r="C15">
-        <v>30788960.22143411</v>
+        <v>30458145.75722643</v>
       </c>
       <c r="D15">
         <v>1671</v>
@@ -3438,10 +3438,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>52419589.2968995</v>
+        <v>52104034.9396586</v>
       </c>
       <c r="C14">
-        <v>21144395.89483507</v>
+        <v>20927264.4442574</v>
       </c>
       <c r="D14">
         <v>948</v>
@@ -3452,10 +3452,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>61834323.28427513</v>
+        <v>62466203.33198615</v>
       </c>
       <c r="C15">
-        <v>25729669.48121765</v>
+        <v>25566838.85353827</v>
       </c>
       <c r="D15">
         <v>723</v>
@@ -4008,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>40639789.45365229</v>
+        <v>40324431.99508546</v>
       </c>
       <c r="C14">
-        <v>16049519.76202649</v>
+        <v>15900105.57303656</v>
       </c>
       <c r="D14">
         <v>475</v>
@@ -4022,10 +4022,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>49132437.43367442</v>
+        <v>49359400.70951353</v>
       </c>
       <c r="C15">
-        <v>19121349.28231511</v>
+        <v>19004391.63026109</v>
       </c>
       <c r="D15">
         <v>362</v>
@@ -4036,10 +4036,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>53605400.07688024</v>
+        <v>54180446.42290615</v>
       </c>
       <c r="C16">
-        <v>21547999.1256685</v>
+        <v>21513610.97208555</v>
       </c>
       <c r="D16">
         <v>268</v>
@@ -4050,10 +4050,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>57889814.90841973</v>
+        <v>58954858.49246357</v>
       </c>
       <c r="C17">
-        <v>24184109.46996064</v>
+        <v>24208919.1374758</v>
       </c>
       <c r="D17">
         <v>191</v>
@@ -4592,10 +4592,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>49487192.30336792</v>
+        <v>49159506.84081858</v>
       </c>
       <c r="C15">
-        <v>18830545.41727343</v>
+        <v>18659792.31229874</v>
       </c>
       <c r="D15">
         <v>555</v>
@@ -4606,10 +4606,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>59217655.5513069</v>
+        <v>58994441.38441692</v>
       </c>
       <c r="C16">
-        <v>21860107.4107585</v>
+        <v>21577369.46603119</v>
       </c>
       <c r="D16">
         <v>431</v>
@@ -4634,10 +4634,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>64979558.4933084</v>
+        <v>67417486.99980083</v>
       </c>
       <c r="C18">
-        <v>26335647.44667763</v>
+        <v>26326795.12820816</v>
       </c>
       <c r="D18">
         <v>223</v>
@@ -5176,10 +5176,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>68005551.40300861</v>
+        <v>67111096.20276004</v>
       </c>
       <c r="C16">
-        <v>24873206.25348771</v>
+        <v>24424998.42848644</v>
       </c>
       <c r="D16">
         <v>703</v>
@@ -5218,10 +5218,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>86721645.29353562</v>
+        <v>88380967.50525707</v>
       </c>
       <c r="C19">
-        <v>35512938.80105798</v>
+        <v>35543069.16547316</v>
       </c>
       <c r="D19">
         <v>447</v>
@@ -5746,10 +5746,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>61608500.74264832</v>
+        <v>60748088.86338413</v>
       </c>
       <c r="C16">
-        <v>22846569.30838021</v>
+        <v>22585184.70832386</v>
       </c>
       <c r="D16">
         <v>986</v>
@@ -5760,10 +5760,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>75803647.91966224</v>
+        <v>75251429.41348067</v>
       </c>
       <c r="C17">
-        <v>27262414.07406618</v>
+        <v>26867271.05408737</v>
       </c>
       <c r="D17">
         <v>820</v>
@@ -5788,10 +5788,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>87541775.12882282</v>
+        <v>91033072.4913754</v>
       </c>
       <c r="C19">
-        <v>34193792.52088004</v>
+        <v>34084825.68684281</v>
       </c>
       <c r="D19">
         <v>512</v>
@@ -5802,10 +5802,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>87828627.49400271</v>
+        <v>89982883.13563851</v>
       </c>
       <c r="C20">
-        <v>36566093.58447769</v>
+        <v>36624429.32719123</v>
       </c>
       <c r="D20">
         <v>353</v>
@@ -6344,10 +6344,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>65440131.33763424</v>
+        <v>64226674.74376989</v>
       </c>
       <c r="C18">
-        <v>23180186.48174964</v>
+        <v>22838308.27617394</v>
       </c>
       <c r="D18">
         <v>376</v>
@@ -6358,10 +6358,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>71887026.57794891</v>
+        <v>71784807.48078391</v>
       </c>
       <c r="C19">
-        <v>25022463.52110936</v>
+        <v>24823811.31341133</v>
       </c>
       <c r="D19">
         <v>266</v>
@@ -6400,10 +6400,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>65983486.38020855</v>
+        <v>68305157.54598257</v>
       </c>
       <c r="C22">
-        <v>25295558.41338098</v>
+        <v>25229456.21284471</v>
       </c>
       <c r="D22">
         <v>46</v>
@@ -6414,10 +6414,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>57335419.54915931</v>
+        <v>59933797.89104021</v>
       </c>
       <c r="C23">
-        <v>23464109.24970669</v>
+        <v>23492625.25433663</v>
       </c>
       <c r="D23">
         <v>39</v>
@@ -6428,10 +6428,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>57991174.81127311</v>
+        <v>58593163.11216585</v>
       </c>
       <c r="C24">
-        <v>24555650.05550671</v>
+        <v>24575351.49080865</v>
       </c>
       <c r="D24">
         <v>21</v>
@@ -6900,10 +6900,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>65903150.31497649</v>
+        <v>64993317.05317006</v>
       </c>
       <c r="C17">
-        <v>23998620.72281174</v>
+        <v>23723475.43613141</v>
       </c>
       <c r="D17">
         <v>809</v>
@@ -6914,10 +6914,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>76342829.87087904</v>
+        <v>75490241.89233144</v>
       </c>
       <c r="C18">
-        <v>27081931.57063218</v>
+        <v>26598409.0732093</v>
       </c>
       <c r="D18">
         <v>625</v>
@@ -6942,10 +6942,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>88908882.30463265</v>
+        <v>90758665.82406816</v>
       </c>
       <c r="C20">
-        <v>33442579.42038266</v>
+        <v>33335861.14041523</v>
       </c>
       <c r="D20">
         <v>370</v>
@@ -6956,10 +6956,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>81685270.2949298</v>
+        <v>84414899.8944288</v>
       </c>
       <c r="C21">
-        <v>33883136.17562475</v>
+        <v>33946526.58856174</v>
       </c>
       <c r="D21">
         <v>250</v>
@@ -7442,10 +7442,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>72298628.14013378</v>
+        <v>71929349.37207317</v>
       </c>
       <c r="C15">
-        <v>27751607.15206182</v>
+        <v>27155221.94164393</v>
       </c>
       <c r="D15">
         <v>2184</v>
@@ -7470,10 +7470,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>93468049.58042128</v>
+        <v>96837931.10622483</v>
       </c>
       <c r="C17">
-        <v>37573601.97820183</v>
+        <v>37466850.59425086</v>
       </c>
       <c r="D17">
         <v>1680</v>
@@ -7484,10 +7484,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>101111419.8427174</v>
+        <v>104050069.5000892</v>
       </c>
       <c r="C18">
-        <v>42307582.09010012</v>
+        <v>42386095.63056424</v>
       </c>
       <c r="D18">
         <v>1409</v>
